--- a/medicine/Enfance/Barboteuse/Barboteuse.xlsx
+++ b/medicine/Enfance/Barboteuse/Barboteuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une barboteuse  est un vêtement pour enfant en bas âge[1], généralement constitué d’une culotte ample et bouffante et d’un plastron, tenu par des bretelles, et souvent doté d'un boutonnage à l’entrejambe pour rendre plus aisé le changement des couches[2]. Le terme combishort est parfois utilisé pour le désigner.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une barboteuse  est un vêtement pour enfant en bas âge, généralement constitué d’une culotte ample et bouffante et d’un plastron, tenu par des bretelles, et souvent doté d'un boutonnage à l’entrejambe pour rendre plus aisé le changement des couches. Le terme combishort est parfois utilisé pour le désigner.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ne pas confondre avec la Barboteuse de Flandria, machine à laver crée par Flandria au XIXe siècle[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ne pas confondre avec la Barboteuse de Flandria, machine à laver crée par Flandria au XIXe siècle.
 </t>
         </is>
       </c>
